--- a/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Good afternoon. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair will be authorized to declare recesses of the Committee at any time. We welcome everybody to the hearing today on ``Triple Threat to Workers and Households; Impacts of Federal Regulations on Jobs, Wages, and Startups.'' And I will now recognize myself for an opening statement, having made an opening statement simply by reading the title.    To some people in Washington, it seems naturally, or even desirable, for the world to be governed by an endless, expanding web of integrate rules. Perhaps that is because Washington is a city of zealous policy advocates and lawyers, of which I am not one. A 2012 Washington Post article noted that law firms are flocking to Washington, D.C., for ``work centered around the capital's regulatory regime.'' There is no question that is true.    I am sure, when I ask each of you your professions, I will get two out of four as lawyers as a start. But I think, more obviously, this is a city of lawyers. This is a city and a region in which you cannot even get off jury duty by being a lawyer because they could not get a jury impaneled if they let lawyers off the hook.    There is a great distance, both physically and socially, between the regulators and the regulated. Regulators understand job impacts intellectually. They understand what they hope to achieve in the way of protection, but they often do not meet with industry representatives, but they are within the D.C. bubble. No one they know is going to lose a job because of overregulation.    Increasingly, there are two different worlds. Perhaps the insensitivity explains the current Administration's fanatic commitment to increased regulations, even as a recovery remains shaky. Each year since 2008, regulators have added more than $100 billion; that is a billion with a ``B,'' in new regulatory cost.    For 2016, the Administration plans 22 ``economically significant'' regulations, up 20 percent from 2015. Outside the Beltway, we feel the impact. A National Black Chamber of Commerce study found that EPA's ``proposed Clean Power Plan would impose severe and disproportionate economic burdens on poor families, especially minorities.'' No wonder Gallup recently found a near-record 69 percent of Americans named big government as the biggest threat to our country's future.    Regulatory advocates, of course, dismiss this. Instead, they focus on the aggregate employment. Factory workers may lose their jobs, but people in Washington assume they can find other ways to make a living: perhaps, go back to law school. And that just shows how much out of touch regulatory advocates often are, working here in the public world of Washington, D.C. Any count of the ``aggregate number'' of jobs also ignores the quality of those jobs.    Data shows that job displacement causes significant and lingering economic and physical hardship. Regulatory compliance jobs do not boost productivity; or another way of putting it is you never got a faster horse by putting more people on its back.    Moreover, as formal OIRA Administrator Cass Sunstein has argued, even if you are not convinced that regulations kill jobs, regulators need to be ``giving a lot more attention to that risk.'' Unfortunately, only 20 percent of agencies qualify employment effects.    Meanwhile, unemployment and underemployment are far higher than they are reported at any time, and particularly in January. We certainly see the U6 unemployment rate, which includes those workers who cannot find full-time work, stands at 9.9 percent.    Similarly, the labor force participation rate remains at near all-time lows. Many displaced workers have simply given up looking. Job creation depends on startups and new businesses. New businesses account for nearly all net new job creation, and almost 20 percent of gross job creation. Yet the U.S. has dropped from 12th among developed economies in terms of business startup activity.    Economists identify regulatory hurdles as one of the most significant influences on business dynamics. Today, ``almost 40 percent of U.S. jobs require a government license, as compared with 5 percent just one generation ago.'' It is worth examining root causes of this trend, and when Federal and State regulatory requirements serve as barriers to market entry.    In 2008, business deaths outnumbered business births for the first time in 35 years. Overregulation has wrecked the old economy. Now, it is suffocating startups. We have a unique panel of witnesses from old-line business, as well as the startup community, who can help us understand how deeply this problem is affecting our constituents. And I truly look forward to their testimony. And with that, I recognize the Ranking Member, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you so much, Mr. Chairman. Today's hearing, the so-called triple threat of Federal regulation on jobs, wages, and innovation, is yet another attempt to justify the crony capitalist mission of regulatory reform. To suggest that we do not need any regulations and that regulations are terrible and a threat to jobs, wages, and innovation is just ridiculous.    While my Republican colleagues have repeatedly asserted that regulations inhibit job growth, all of the available evidence demonstrates that regulations play little role in unemployment. As the unemployment rate shrinks month by month, this argument has now shifted to wages and innovation. Notwithstanding the slippery nature of the regulatory reform debate, the facts remain clear: there is little to no connection between Federal regulation and jobs, wages, or innovation.    Leading experts at the University of Pennsylvania conducted an exhaustive study in 2014 that found that regulation plays a relatively small role in determining the aggregate number of jobs.'' Earlier studies by a host of experts in economics and administrative law reached similar conclusions. The Economic Policy Institute, San Francisco Federal Reserve, and the National Employment Law Project have also refuted the assertion that regulations undermine wage growth.    And finally, the economics chair at the Mercatus Institute, which is a bastion for conservative, free-market economic theory, has debunked the argument that regulations undermine innovation, finding that the exact opposite is true: ``Industries with greater regulatory stringency have higher startup rates,'' as well as similarly high job creation rates.    Meanwhile, the latest report from the Bureau of Labor Statistics shows that unemployment has fallen to 4.9 percent, the lowest since the George W. Bush recession. That is over 70 straight months of private sector job growth. I think that is about 14 million jobs created over the last 70 months. And that is with the Obama regulatory system, which, by the way, is very pro-worker, pro-environment, pro-public health and safety, and pro-innovation. Even conservative economic theorists have given up insisting that pro-regulatory policies undermine our economic output.    As Douglas Holtz-Eakin, president of the American Action Forum, and with great gnashing of his teeth noted himself, ``With low unemployment and rising wages, the Republicans' job gets a lot harder.'' Noting that a recent jobs report was ``promising.''    Finally, some will argue today that the sharing economy is proof of the positive effects of deregulation. I strongly oppose that sentiment. The sharing economy involves nuanced questions concerning the interplay between competition, regulation, and consumer protection. It has opened new markets to competition that did not exist just a few years ago, while raising novel and complex regulatory issues.    But let me be clear. The innovation economy has flourished under the Obama administration, just as the Internet blossomed under the Clinton administration. It does not exist in a regulatory or legal vacuum, and there is zero tradeoff between innovation and consumer protection.    In fact, as studies have repeatedly found, consumers only use services where there is a strong foundation of trust. As the Chairman of the Subcommittee knows, I have called for a hearing on this subject, the innovation economy, which this Subcommittee exercises ample jurisdiction over.    Indeed, we could have an entire series on it but, sadly, today's hearing, the 29th anti-regulatory hearing of its kind, will not explore the issues raised by the sharing economy in a thoughtful and evenhanded way. But I look forward to action on this issue, and with that, I will yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Chairman Issa, we have not conducted a hearing on the devastating impact that overwhelming student loan debt has on families and on our Nation's economy, or how to strengthen protections for employees and retirees of companies and municipalities that seek bankruptcy relief, or the life-threatening public health and safety ramifications of penny-wise but, in my view, dollar-foolish budget cuts made by unelected emergency financial managers, as illustrated by the catastrophic Flint water crisis and the hazardous condition of Detroit public school buildings in Michigan. And these are matters that affect millions of hardworking Americans and that have real consequences, not the illusionary so-called triple threat referred to in the title of today's hearings; and I use the term ``illusionary'' because there is no empirical evidence that regulations have a deleterious impact on job growth.    In fact, one could argue that a strong regulatory environment actually promotes job growth. For example, my colleagues here, on the other side, assert that the current Administration has issued an unprecedented number of regulations. Assuming that is true for the sake of argument, how can they ignore these facts? Three of them: unemployment has fallen by half since the 2008 Great Recession. The United States is in the midst of one of the longest-running streaks of private sector job creation in history; and three, 14 million new jobs have been created over the past 7 years.    And what about the impact of regulation on wages? The Economic Report of the President, which was just issued earlier this week, reports that wages grew faster last year than at any time since the Great Recession.    Admittedly, wages have not increased as much as they should; they have remained flat, but the cause is not because of overregulation. Rather, wage stagnation is largely a symptom of workplace inequality fostered by declining union membership and the resultant diminished bargaining power of lower- and middle-wage workers.    Sixty years ago, 1 out of every 4 workers belonged to a union. Now, today, less than 10 percent of Americans belong to a union. In fact, union membership in some states is less than 3 percent. Declining unionization, according to one study, accounts for between a fifth and a third of the increase of inequality since the 1970's.    And finally, with regard to the illusionary thought that regulations inhibit the creation of new businesses, this too is inaccurate. Startup companies, by bringing new products and services to the marketplace, are vital to productivity growth in the United States. And startups create jobs.    In 2013, startups created more than 2 million new jobs, compared with established firms that accounted for over 8 million new jobs. Unfortunately, there are real barriers to entry for new companies. Weak antitrust enforcement over the years has substantially reduced competition, thereby allowing larger firms to squeeze new entrants.    In addition, existing firms often lobby for rules protecting them from new entrants. Eliminating these real barriers to entry should be our Committee's priority, not spending, yet another hearing dealing with illusionary problems. And in closing, I want to thank the witnesses for their presence and participation. I look forward to the hearing of their testimony, and I thank the Chairman for his indulgence.</t>
   </si>
   <si>
@@ -85,45 +76,30 @@
     <t xml:space="preserve">    Mr. Issa. Additionally, I would ask all Members' opening statements be made a part of the record. Without objection, so ordered.    I would now ask, before we begin, for all the witnesses to please rise and take the oath. Please raise your right hands. Do you solemnly swear or affirm that the testimony you will give here today will be the truth, the whole truth, and nothing but the truth? Please be seated. Let the record indicate that all our many witnesses answered in the affirmative.    Today we are pleased to have a distinguished panel of witnesses. From left to right, we have Mr. Paul Murray. He is vice president of operations at the Murray Energy Corporation. Murray Energy Corporation is the largest independent coal company in America. He has worked at surface and underground coal mines his entire career. His duties have spanned positions from laborer to vice president. Mr. Murray earned his bachelor's degree in mining engineering at West Virginia University and his master's in business administration from the great State of Ohio, Ohio State University. Go Buckeyes.    Ms. Janet Kaboth is president of Whitacre-Greer Company. It is a fourth-generation--congratulations, you beat all the odds--family-run company that has been manufacturing clay products since 1916 in northeastern Ohio. It currently operates a plant in Alliance, Ohio, that employs 80 people. During her over 30 years with the company, Ms. Kaboth has held roles in information systems, marketing, accounting, and strategic planning.    Additionally, Ms. Kaboth serves on various industry and community boards. She earned her degree in education at Miami University in Oxford, Ohio, the alma mater of our speaker, Paul Ryan, and a master's in business administration from Baldwin Wallace College. And I will take just a moment to say, as a native Clevelander, you spent your whole live within a short drive of where I grew up.    Our next witness, Jared Meyer, is a fellow at the Manhattan Institute. His area of expertise includes microeconomic theory and economic effects of government regulations. His work has been featured in various national publication and media outlets. He is also the co-author of a book, ``Disinherited: How Washington Is Betraying America's Young.''    Mr. Meyer earned his bachelor's degree in finance with a minor in philosophy of law at St. John's University, where he graduated summa cum laude.    Next we have Dr. Patrick McLaughlin, senior research fellow at the Mercatus Center, previously mentioned as apparently not a bastion of liberalism. His research has focused on regulations and the regulatory process. Prior to joining Mercatus, Dr. McLaughlin served as a senior economist at the Federal Railroad Administration. He has published in the fields of law and economics, public choice, environmental economics, and international trade and has testified before both the House of Representatives and the Senate, as well as state legislatures.    Dr. McLaughlin earned his bachelor's degree in language and international trade, as well as his master's and Ph.D. in economics from Clemson University. Dr. Robert Weissman. Is it Weissman or Weissman?</t>
   </si>
   <si>
-    <t>Weissman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weissman. Weissman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Weissman.--Is the president of Public Citizen. His expertise ranges from corporate accountability and government transparency to trade and globalization to economic and regulatory policy. Prior to joining Public Citizen, Mr. Weissman served as director of the corporate accountability organization at Essential Action and as editor of the Multinational Monitor. He is widely published and has made many media appearances.    Mr. Weissman earned his bachelor's degree in social studies from Harvard University, and his J.D. again from Harvard, where he graduated magna cum laude. No slouch is he.    Dr. Bivens, you are last but not least. You are the research and policy director at the Economic Policy Institute, often called EPI. Your expertise includes microeconomics and monetary policy and economics of globalization, social insurance, and public investment. Additionally, you have provided expert testimony on issues before the U.S. Congress, as well as analyses for the United Nations and the Trade Union Advisory Committee. Dr. Bivens is widely published, including both books and articles, and has made various media appearances. Before joining EPI, Dr. Bivens was assistant professor of economics at Roosevelt University and provided consulting services to Oxfam America.    Dr. Bivens earned his bachelor's degree in economics from the University of Maryland at College Park, and his Ph.D. in economics from the New School of Social Research.    Again, I said it was a distinguished panel; it certainly is, and I thank you. And with that, I would only, as you might imagine, say with this large panel, would you please strictly stay to 5 minutes or less? The counter, little traffic light there, will guide you. Green, of course, means you may continue as quickly as possible. Yellow means you really have to go quick. And of course, red always means stop now. With that, we have our first witness, Mr. Murray.</t>
   </si>
   <si>
-    <t>Murray</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murray. Mr. Chairman, Members of the Committee, thank you. My name is Ryan Murray. I am vice president of operations at Murray Energy Corporation, our Nation's largest underground coal mining company. I am here today to discuss the devastating impacts from the Stream Protection Rule proposed by the Office of Surface Mining Reclamation and Enforcement: the Nation's mining operations, our proud American coal miners and their families, our numerous suppliers, and our communities.    While I will focus today on the Stream Protection Rule, it is just one of many regulations from this Administration that are destroying our industry's jobs, operations, suppliers, communities, and families.    Murray Energy and subsidiary companies have over 2,000 employees out of work right now from our peak employment of 8,000 employees in May of 2015. Several hundred of these men and women I hired myself. Due to the destructive and illegal actions of the Obama administration, our industry is under attack. Now with the proposed Stream Protection Rule, our industry will be eliminated for no environmental benefit. The SPR was originally conceived to keep surface mining operations from mining through streams.    However, during the 6 years it took OSM to draft the SPR, the rule was manipulated into complete rewrite of the Surface Mining Control and Reclamation Act of 1977. This is most likely due to the fact that OSM drafted the rule largely behind closed doors and without meaningful input from primacy state agencies, nearly all of whom dropped out of the formal consultation process with OSM because they deemed it to be a sham.    Now the SPR will ultimately end all underground longwall mining in the United States. Longwall mining is the safest, most modern, cost-effective, productive, and environmentally friendly method of mining in existence. As the diagrams attached to my testimony show, due to OSM's incredibly broad and unsupported interpretations in the SPR, extremely vast portions of Murray Energy's coal reserves and those of other coal companies will be sterilized if the rule is finalized as proposed. Incredibly, OSM has not even considered the need for a grandfathering provision, which means that primacy states will be required to overturn existing permits for which significant time, planning, and resources have already been expended.    Simply stated, the SPR eliminates the United States coal industry. For underground mining operations, the SPR is expected to strand 289 million tons of coal reserves annually, with a value of at least $18 billion per year. Additional impacts include a decrease in recovery of coal reserves by up to 64 percent, loss of annual contribution to the Nation's GDP of between $26 and $58 billion, and $3 to $6 billion in Federal and state tax revenue reductions. This will be devastating for America.    This is a human issue. Layoffs are expected to be dramatic, with between 40,000 and 77,000 coal miners expected to lose their jobs. These estimates completely undercut OSM's ridiculous suggestion that there will be minimal job impacts from the rule because coal mining jobs will be replaced with compliance and government inspector positions.    The broader effects of these layoffs will be enormous, as suppliers, retailers, and others feel the impact of reduced spending from the mining industry. One outside expert concluded that the SPR would cost between 112,000 to 280,000 jobs throughout the United States. Another analysis indicates an even greater ripple effect, where one lost mining job causes a loss of 11 additional jobs in the community, meaning up to 850,000 lost jobs as a result of the SPR.    For a coal miner, losing a job even temporarily is financially devastating. Most often, their major asset owned by many miners is their home. When they have to relocate just to attempt to find work, to whom are they supposed to sell this home? Their community is devastated. The Administration asserts that these coal miners will simply be retrained for other work within their communities. The reality is, there are virtually no other high-paying jobs in these communities. The average wages of a U.S. coal miner are typically double those of the average in their community.    Additionally, suppliers to the coal industry will be further devastated by the SPR. For example, one major equipment supplier in the mining industry, who is a world leader in innovation and development, had their first layoff in the company's 80-year history just last month. The SPR will push this innovation and manufacturing to other countries permanently.    Lastly, the impacts on coal mining communities themselves will be significant. Many of these communities rely on coal severance tax revenues to fund critical programs and projects, including school districts. OSM wholly ignored all of these real-world consequences, which disproportionately affect low-income households. The Obama administration's regulatory assault can best be described as a political power grab of America's power grid. It is my sincere hope that Congress will stop the proposed SPR rule.    Thank you for this opportunity to speak on behalf of our Nation's coal miners, and I will be pleased to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Murray. Ms. Kaboth?</t>
   </si>
   <si>
-    <t>Whitacre-Kaboth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Whitacre-Kaboth. Good afternoon. Thank you for inviting me to testify. My name is Janet Whitacre-Kaboth. I am the president, CEO, and chairman of the board of Whitacre-Greer Company, which has manufactured clay products in northeastern Ohio since 1916. As we celebrate 100 years in business, we are very proud of our heritage. We operate a manufacturing facility in Alliance, Ohio, that employs approximately 80 people. We manufacture firebrick for the inside of masonry fireplaces and paving brick. In Washington, D.C., paving brick made by Whitacre-Greer form the sidewalks along Pennsylvania Avenue from the Capitol to the White House.    I am here on behalf of my company and the brick industry as a whole, as I serve on the board of the Brick Industry Association. We are a very small company within the brick industry. We only have one plant that has two kilns. Our industry and our company is committed to doing our share and to doing the right thing for our employees, our vendors, customers, and communities.    However, as our industry continues to struggle to come out of the Great Recession, we, like many others, have limited resources. It is extremely important that these limited resources be used judiciously and on the most important issues. It is critical that every dollar we spend gives back some benefit. There are many regulations that affect us, but I am going to talk about two regulations today: the air toxics standard or brick MACT developed by the USEPA; and the proposed revisions to the silica permissible exposure limit, expected to be issued very soon by OSHA. These two rules and their crippling impact on the brick industry illustrate how workers and local communities can be devastated by new regulations.    The current brick MACT is the second time in a decade that the EPA imposed major requirements on our industry. The agency finalized a rule in 2003. Our industry complied with the rule in 2006. But in 2007, the courts vacated the rule. Our industry was in compliance with that rule when it was thrown out, and had spent over $100 million to install 80 of the 100 controls that now exist in our industry. The EPA used the performance of the new controls to establish even lower limits for its current rule, which it finalized in late 2015.    For many brick companies, this will require them to tear out the existing controls that they spent millions on, and purchase more costly new controls in order to produce a slight benefit to the environment. While the brick MACT does allow a health-based standard for some emission types, full compliance will probably require the installation of control devices for particulate matter and mercury for most kilns. For our plant in Alliance, Ohio, the estimated cost is $4 million for control devices and operation. This represents 23 percent of our current net worth, which would eliminate at most 4 pounds of mercury per year.    In September 2014, OSHA proposed revisions to the current PEL for silica. This reduction was proposed as a one-size-fits-all type regulation that is typical. OSHA estimates costs for this rule to average $38,000 per year annualized over a 10-year period for a brick plant. However, compliance would require an initial capital expenditure of about $906,000.    OSHA has been provided a significant set of studies conducted over the last 75 or more years, demonstrating that the response to the silica used in the brick industry is very different from other industries, and they acknowledge the much lower incidence rate of silicosis from our industry. They also separately acknowledge the high costs of their rule. However, they do not put these two pieces of data together and consider our industry separately when attempting to show that the rule is justified.    In both these cases, the statutes that direct EPA and OSHA to develop these rules have flexibilities contained with them to allow these agencies to meet their obligation without destroying our industry. We just do not know how to make them use these flexibilities and to take the time to do it right, rather than just doing it quickly, and to not take a one-size-fits-all approach that will destroy an industry. Compliance with both of these rules at the same time will devastate our already threatened industry, where 75 percent of the companies are small businesses. This is well documented in a report issued earlier this month by the U.S. Chamber of Commerce entitled ``Regulatory Indifference Hurts Vulnerable Communities.''    Practically speaking, from my end, compliance with both these regulations would require me to obtain a loan for $5 million that would add equipment that would not reduce our cost, improve our product, increase our sales, or provide any health benefits for our employees or neighbors. It would be impossible for us to obtain a loan of this size that would not provide us with any benefits. I spent the last 2 years trying to obtain financing for kiln renovation, which would reduce our natural gas cost by approximately $500,000 per year, but it took me 2 years to find a financial institution willing to lend us the money. The cost of compliance with both these regulations at the same time would put us out of business, and we are not the only ones.    If the inability to comply would cause us to go out of business, more than $8 million would be lost from our local community; we would pay over $4 million in wages to 80 families. Many of our employees would have difficulty finding other employment due to their low level of education.    However, if these regulations would save lives of our workers or neighbors, they would be worth it, but for both of these rules, the agencies themselves have data that show that the benefits of these regulations is minimal or nonexistent for our industry.    So, I guess I would like to think that after 100 years of providing good employment, paying taxes, and trying to be a responsible corporate entity, that someone in the government could look at the cumulative effect of this regulation and help us. Thank you.    [The prepared statement of Ms. Whitacre-Kaboth follows:*]---------------------------------------------------------------------------    *Note: Supplemental material submitted with this prepared statement is not reprinted in this record but is on file with the Committee, and can also be accessed at:  http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=104519.                                                                __________</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Mr. Meyer.</t>
   </si>
   <si>
-    <t>Meyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meyer. Chairman Issa, Ranking Member Johnson, and other Members of the House Judiciary Committee, thanks for giving me the opportunity to give testimony on how the current model of Federal regulation stands in the way of millennial entrepreneurs. Millennials have been called the startup generation, but few young Americans have followed through on their entrepreneurial dreams. About two-thirds of millennials want to work for themselves at some point. Yet less than 4 percent of private businesses are at least partially owned by someone under the age of 30, the lowest annual proportion on record.    Government policy, particularly in regards to regulation, ignores the reality of a 21st century economy and continues to hold back millennials' economic opportunity. Congress has granted executive and independent agencies freedom to regulate with minimal oversight, and these agencies consistently understate the costs that their pronouncements place on young Americans. It is impossible to know the full costs of America's 175,000-page Code of Federal Regulations because executive agencies refuse to take count.    For example, during 2014, only 16 of the over 3,500 rules published in the Federal Register had a cost analysis. This lack of oversight occurred even though there were 290 significant rules and 69 economically significant rules that year. These types of rules generally have over $100 million in annual negative effects on the economy, and are supposed to undergo rigorous review.    Agencies are also increasingly acting as legislators. In 2015, there were over 50 regulations for each law that Congress passed. This imbalance shows the need for Congress to take back its authority from agencies. Public review and transparency requirements do not apply to agency guidance documents, memorandum, or notices.    These growing types of shadow, or also called dark matter, regulation lack transparency, even though they can impose substantial costs on young Americans. This negative effect can be seen in the Department of Labor's efforts to make it more difficult for independent contractors to work.    The Labor Department recently issued an administrator's interpretation, which did not have to go before the public for comments; that downplays a lack of control over workers' hours as a determinant in employment status. The flexibility that independent contractor status offers workers is vital for many industries, including the emerging sharing economy. The sharing economy's embrace of technology, convenience, and flexibility embodies many young Americans' economic ideal. While some workers use these platforms full-time, the vast majority use them for part-time work or supplemental income. For about the 70 percent of young adults who experience an average change of over 30 percent in their monthly incomes, the opportunity to smooth out earnings to meet rent, pay down student loans, or fund a new business venture is a benefit of the sharing economy that must be protected.    Young Americans realize how out of touch regulators are with today's economy. If you look at it, only 18 percent of millennials believe that regulators primarily have the public's interest in mind. The worker classification needs to be sorted out by Congress, not courts or unaccountable executive agencies. The alternative is the crippling of economic opportunity by executive agencies who are set on incorrectly classifying the vast majority of new economy workers as employees.    The House Judiciary Committee deserves credit for establishing a task force on executive overreach, as there are many ways that Congress can regain control over Federal agencies and restore lost economic opportunity for millennials. Part of the reason for the ineffectiveness of previous reforms is the inherent incentives that agencies have to expand their reach. Internal regulatory reviews have not led to meaningful reform, but how could they have? The hands-off approach that Congress has given agencies provides little incentive for self-control.    The three main priorities for meaningful regulatory reform should be slowing the continued growth in the cost and number of regulations, repealing outdated and burdensome regulations, and giving the public a greater say in agencies' actions. Many promising regulatory reforms have already been introduced in the House. The Regulatory Predictability for Business Growth Act, the Regulatory Accountability Act, REINS Act, Red Tape Act, and SCRUB Act, all address at least one of these important priorities.    Young Americans need a stronger voice in the regulatory process, and their elected representatives can provide that check. Millennials value transparency, democracy, and accountability. It is long past time for Congress to apply these principles to U.S. regulation.    Thank you for the opportunity to provide testimony, and I look forward to continuing the discussion.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Dr. McLaughlin.  TESTIMONY OF PATRICK A. McLAUGHLIN, Ph.D., SENIOR RESEARCH </t>
   </si>
   <si>
-    <t>McLaughlin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Chairman Issa, Ranking Member Johnson, Members of the Committee, thank you for inviting me. My main point today is simple: regulations contribute to poverty. That may sound counterintuitive, perhaps because some people assume that the costs of regulations are limited to compliance costs, and that those costs are paid primarily by businesses. This belief is incorrect. There are at least two specific ways that the costs of regulation can actually be regressive, meaning that the costs are disproportionately borne by low-income households.    First, regulations have regressive effects by increasing the prices of basic necessities, such as electricity and housing, which typically are the big-ticket items on the budget of low-income households.    Second, some types of regulations are associated with higher levels of income inequality, because they make it too costly and too difficult for entrepreneurs from the lowest segments of the income distribution to start their own businesses.    On my first point, in contrast to the belief that businesses pay the cost of regulation, regulatory growth is in fact associated with increases in the prices of all goods for all consumers.    A recent study, which I have submitted for the record, found that a 10 percent increase in the quantity of Federal regulations is associated with a 0.7-perecent increase in prices. While 0.7 percent may sound small, consider that this same study found that regulations grew by 33.6 percent from 2000 to 2012. A simple linear calculation of the effect over time implies that 2.31 percent of price inflation was associated with Federal regulatory growth.    However, if you consider annual compounding, which would be appropriate given that this is a rate of growth, the total price inflation associated with regulation over that period is close to 9 percent; and I promise I will not mention annual compounding again. That percentage is the average across all households, but the price inflation associated with regulation is worse for low-income households because the big-ticket items in their budgets also happen to be heavily regulated. For example, electricity costs make up more than twice as much of the budgets of low-income households compared to high-income households. Because it is heavily regulated, the regulatory price inflation associated with the good is also relatively high.    My second point is that regulations can contribute to income inequality. In the study that I submitted for the record, a co-author and I examined a sample of 175 countries to learn more about the relationship between regulation and income inequality. We found that those countries with more stringent entry regulations tend to experience significantly higher levels of income inequality. The explanation for this is straightforward: when entrepreneurs cannot legally open a business because of the cost or difficulty of dealing with regulations, they may abandon the idea altogether.    Consider the longstanding reputation of America as the land of opportunity, where you can lift yourself up by your bootstraps with enough hard work. Indeed, entrepreneurship has historically been one of the best paths from rags to riches. If regulations are inhibiting this process, people with low incomes have fewer opportunities to rise up the income distribution.    In sum, there is mounting evidence, mounting empirical evidence, that regulations are contributing to poverty. First, they have regressive effects caused by increasing prices, particularly for those items that low-income households purchase most.    Second, regulations can contribute to income inequality by increasing the cost of starting a business. This makes it more difficult for entrepreneurs to start their climb up the income ladder.    Although these facts are surely disheartening, there is good news. Because regulations disproportionately harm low-income households, regulatory reform offers an opportunity to enact a policy that would effectively act like a tax refund, because it would reduce the price inflation associated with regulations.    However, unlike a one-time tax refund, the benefits from regulatory reform would repeat year after year. They would not increase the deficit, and they would be progressive in their nature. That is, they would accrue foremost to low-income households. The regulatory process in the United States leads to regulatory accumulation, the buildup of rules over time.    Federal regulatory code currently contains over 1 million individual regulatory restrictions. If you actually tried to read regulations as a full-time job, it would take you over 3 years to read the entire code: over 3 years.    The accumulation of regulation is both undesirable because of the unintended consequences associated with it, and avoidable. If this accumulation of regulation is harming not only the economy but especially low-income households, it is certainly time to consider ways that we can eliminate regulations that are obsolete, duplicative, ineffective, or otherwise undesirable. We can and should change the regulatory process to reduce the ways that Federal regulations are hurting, not helping, low-income households. Thank you for your attention.    [The prepared statement of Mr. McLaughlin follows:**]---------------------------------------------------------------------------    **Note: Supplemental material submitted with this witness statement is not reprinted in this record but is on file with the Committee. The complete statement can be accessed at:  http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=104519.                                 __________</t>
   </si>
   <si>
@@ -139,9 +115,6 @@
     <t xml:space="preserve">    Mr. Johnson. Well with arbitration also.</t>
   </si>
   <si>
-    <t>Bivens</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bivens. Thank you.</t>
   </si>
   <si>
@@ -319,9 +292,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino [presiding]. Without objection, so ordered.</t>
   </si>
   <si>
@@ -334,9 +304,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I will say this, though--and we are going to get to Mr. Murray and Ms. Kaboth. I thank you all for being a part of this panel. You actually work in industries and not discuss other industries, and I always think that the greatest thing about these panels--no offense to my legal experts and my think tanks--you are actually hiring people, getting people jobs, doing those kind of things that actually are being affected up here in Washington.    And being a part of this panel makes great sense. The thing that just--and I have sat up here for just a few moments. And again, Mr. Bivens is probably the most--and I am not saying dishonest or--the truthful thing you said just a moment ago was the shuffling of jobs--that one may have a problem in where it--you know where that greatest impact is shown is in Washington, D.C. We have been wonderful at creating jobs in Washington, D.C. We have been wonderful at creating regulatory impact jobs in Washington, D.C.    We have not been very good--I mean, when you have--I am going to just name some things here because, Mr. Chairman, this--I could not think of a better--I have got banks that are being regulated by more regulators than the bank has employees. And the regulators get mad because they do not have someplace to sit down.    Mr. Weissman, you just said the silica rule. I was in environmental monitoring before. You know what one of the problems with the silica rule is? They cannot get honest measurements. They cannot determine actual levels. You go to the granite industry in my district, and you actually go into one of these facilities where they are already using protective devices and try and measure ambient silicate. I mean, it sounds great. You are going to save so many other people. It sounds wonderful, but yet, the practicality is almost impossible to read.    You get into phosphate readings in Lake Lanier in northeast Georgia in which the phosphate levels taken from the sample are too small to be accurately counted, but yet the cities and counties are required to meet a level in which the Federal Government cannot even verify.    We talk about issues when it comes to the position of saying regulations help. There is nobody in this room, and this is where the straw man arguments often come out in this, that Republicans do not like regulations; we want unsafe air; we want to drink dirty water; we want to do this. That is ridiculous. What is unfair to the American people is to come up with rules and regulations and say, ``Well, they do not affect people.'' I have got an industry in my district, RING, (?) which is a nonprofit. They are wanting to expand and want to do, but they got caught with the 50 full-time equivalent issue. Now, we can say that, you know, that regulations do not affect jobs, but they cannot afford to grow because of these regulations that have been put on them.    Every night that I am thankfully home, I get to sleep with and have a great relationship with a wife who is a teacher. I am tired of hearing my wife for 26 years--because one of the things we talk about is jobs in this Committee and regulatory in this Committee is, we need an educated workforce, but, yet, we have an ever-expanding Department of Education up here, many who of which have never been in a classroom. Banking regulators who have never made a loan, telling the rest of the world how to make a loan: that is just ludicrous. Educators sitting in a cubicle saying, ``Here is how you teach kids,'' and have never taught in a classroom.    It is not the fact if regulation matters. It is the fact of Washington on steroids thinking, ``We know better than everywhere else.'' If you want to help industry, if you want to help manufacturers be--I have yet to walk into a factory in which the general manager says, ``Doug, watch today. We are going to maim three people. Doug, I want you to watch this. We are hiding the ball, and we want to see people's fingers cut off today. It is fabulous. Watch it.''    When you have OSHA, which lives off its own fine system, hiring regulators, increasing the fine schedule, and going in, and this is what they do. They fine first instead of showing businesses, ``Here is a better way. Here is how you can fix the problem''--never seen that in your industries, I bet. But instead, it is because they have to keep their job. They are better than used car salesmen. OSHA inspectors have to write up and have to get fines, and then they settle the fines. If that is the regulatory environment that this country wants, then we are headed straight for disaster.    So, to say silica is going to save all these lives--Mr. Weissman, show me how you are going to measure that in the ambient air. Show me how that is actually going to save people. I believe several things. I believe you eat right, you exercise daily, you follow your doctor's instructions, you die anyway. There are some things in life that are just attributable to living, and to say we are going to save so many people by something that you honestly cannot measure is a disingenuous remark to a country that is struggling for jobs and education.    Mr. Bivens, you said it right. Regulations help some areas, and they hurt others. My problem is, they hurt these people on this end who are actually trying to give people jobs, and they help people up here who have never done the jobs. I do not have any questions, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -346,9 +313,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. And I want to thank the witnesses for your presence here today. And if I could just start with Mr. Meyer, and perhaps we can take a macroeconomic approach to the economic situation that we find ourselves in today. Is it your view that regulations that have been put forth under this Administration have stifled economic growth in America?</t>
   </si>
   <si>
@@ -500,9 +464,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. I think everyone here knows and hopefully agrees that unnecessary regulations hurt job growth and suppress wages, but we often talk about that conceptually. We talk about it in broad strokes. We talk about tens of thousands of jobs that will be crushed by a new regulation created by some unelected bureaucrat or the millions of dollars in compliance costs. But those tens of thousands of jobs are not just numbers; they are individuals, and they are families. They are hardworking Texans like a lot of the folks that I represent. And those millions of dollars in compliance costs do not just appear out of thin air. Those are funds that could otherwise be used to pay salaries or to create more jobs or to invest in future growth.    Just 2 months ago, Gallup released a poll that found that 69 percent of Americans name big government as the biggest threat to our country right now and in the future, not ISIS, not out-of-control spending, not a broken health care system, not a nuclear Iran. Now, those threats are certainly all real. But right now, 7 out of 10 Americans are most worried about a rapidly growing government, a government that does stifle opportunity instead of fostering it. And it is a real problem, as we are hearing today. It is forcing companies out of business that have been around for almost a century. Real people are losing their jobs. Businesses are not growing.    So, Dr. McLaughlin, I want to start with you. Regulators do not seem to understand that the world is interconnected. They appear to view each regulation in isolation and do not seem to understand that they are actually crushing the jobs of their fellow Americans. I want to give you an opportunity to elaborate on this very narrow-minded, naive, in my opinion, view of the world.</t>
@@ -970,11 +931,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -994,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1022,11 +979,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1046,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1074,11 +1027,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1100,11 +1051,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1124,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1152,11 +1099,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1176,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1204,11 +1147,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1228,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1256,11 +1195,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1280,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1308,11 +1243,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1332,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1360,11 +1291,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1384,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1412,11 +1339,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1436,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1462,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1490,11 +1411,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1514,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1542,11 +1459,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1566,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1594,11 +1507,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1618,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1646,11 +1555,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1670,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1698,11 +1603,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1722,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1750,11 +1651,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1774,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1802,11 +1699,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1826,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1854,11 +1747,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1878,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1906,11 +1795,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1930,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1958,11 +1843,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1982,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2010,11 +1891,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2034,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2062,11 +1939,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2086,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2114,11 +1987,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2138,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2166,11 +2035,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2190,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2218,11 +2083,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2242,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2270,11 +2131,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2294,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2322,11 +2179,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2346,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2374,11 +2227,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2398,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2426,11 +2275,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2450,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2478,11 +2323,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2502,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2530,11 +2371,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2554,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2580,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2606,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2632,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2658,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2684,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2710,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2736,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2762,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2788,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2814,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2840,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2866,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2892,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2918,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2944,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2970,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2996,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3022,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3048,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3074,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3100,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3126,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3152,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3178,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3204,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3230,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3256,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3282,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3308,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3334,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>109</v>
-      </c>
-      <c r="G93" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3360,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3386,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>109</v>
-      </c>
-      <c r="G95" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3412,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3438,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3464,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3490,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3516,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3542,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3568,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3594,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>109</v>
-      </c>
-      <c r="G103" t="s">
-        <v>110</v>
-      </c>
-      <c r="H103" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3620,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3646,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3672,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3698,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3724,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3750,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3776,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3802,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3828,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3854,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>109</v>
-      </c>
-      <c r="G113" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3880,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3906,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>109</v>
-      </c>
-      <c r="G115" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3932,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3958,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>109</v>
-      </c>
-      <c r="G117" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3984,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4010,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>109</v>
-      </c>
-      <c r="G119" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4036,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4062,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
-      </c>
-      <c r="G121" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4088,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4114,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>109</v>
-      </c>
-      <c r="G123" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4140,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4166,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>109</v>
-      </c>
-      <c r="G125" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4192,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4218,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>109</v>
-      </c>
-      <c r="G127" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4244,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4270,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>109</v>
-      </c>
-      <c r="G129" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4296,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4322,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>109</v>
-      </c>
-      <c r="G131" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4348,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4374,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>109</v>
-      </c>
-      <c r="G133" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4400,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4426,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>109</v>
-      </c>
-      <c r="G135" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4452,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4478,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>109</v>
-      </c>
-      <c r="G137" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4504,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4530,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>109</v>
-      </c>
-      <c r="G139" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4556,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4582,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>109</v>
-      </c>
-      <c r="G141" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4608,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4634,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>109</v>
-      </c>
-      <c r="G143" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4660,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4686,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>109</v>
-      </c>
-      <c r="G145" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4712,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4738,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>109</v>
-      </c>
-      <c r="G147" t="s">
-        <v>110</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4764,13 +4433,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>100</v>
-      </c>
-      <c r="G148" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4790,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>161</v>
-      </c>
-      <c r="G149" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4816,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4842,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
-      </c>
-      <c r="G151" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4868,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>35</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4894,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>161</v>
-      </c>
-      <c r="G153" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4920,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4946,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>161</v>
-      </c>
-      <c r="G155" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4972,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>100</v>
-      </c>
-      <c r="G156" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4998,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5024,13 +4673,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>100</v>
-      </c>
-      <c r="G158" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5050,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>29</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5076,13 +4721,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>100</v>
-      </c>
-      <c r="G160" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5102,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>100</v>
-      </c>
-      <c r="G161" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5128,13 +4769,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5154,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>100</v>
-      </c>
-      <c r="G163" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5180,13 +4817,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5206,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>100</v>
-      </c>
-      <c r="G165" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5232,13 +4865,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5258,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>100</v>
-      </c>
-      <c r="G167" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5284,13 +4913,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5310,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>100</v>
-      </c>
-      <c r="G169" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5336,13 +4961,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>41</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5362,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>100</v>
-      </c>
-      <c r="G171" t="s">
-        <v>101</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Good afternoon. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. Without objection, the Chair will be authorized to declare recesses of the Committee at any time. We welcome everybody to the hearing today on ``Triple Threat to Workers and Households; Impacts of Federal Regulations on Jobs, Wages, and Startups.'' And I will now recognize myself for an opening statement, having made an opening statement simply by reading the title.    To some people in Washington, it seems naturally, or even desirable, for the world to be governed by an endless, expanding web of integrate rules. Perhaps that is because Washington is a city of zealous policy advocates and lawyers, of which I am not one. A 2012 Washington Post article noted that law firms are flocking to Washington, D.C., for ``work centered around the capital's regulatory regime.'' There is no question that is true.    I am sure, when I ask each of you your professions, I will get two out of four as lawyers as a start. But I think, more obviously, this is a city of lawyers. This is a city and a region in which you cannot even get off jury duty by being a lawyer because they could not get a jury impaneled if they let lawyers off the hook.    There is a great distance, both physically and socially, between the regulators and the regulated. Regulators understand job impacts intellectually. They understand what they hope to achieve in the way of protection, but they often do not meet with industry representatives, but they are within the D.C. bubble. No one they know is going to lose a job because of overregulation.    Increasingly, there are two different worlds. Perhaps the insensitivity explains the current Administration's fanatic commitment to increased regulations, even as a recovery remains shaky. Each year since 2008, regulators have added more than $100 billion; that is a billion with a ``B,'' in new regulatory cost.    For 2016, the Administration plans 22 ``economically significant'' regulations, up 20 percent from 2015. Outside the Beltway, we feel the impact. A National Black Chamber of Commerce study found that EPA's ``proposed Clean Power Plan would impose severe and disproportionate economic burdens on poor families, especially minorities.'' No wonder Gallup recently found a near-record 69 percent of Americans named big government as the biggest threat to our country's future.    Regulatory advocates, of course, dismiss this. Instead, they focus on the aggregate employment. Factory workers may lose their jobs, but people in Washington assume they can find other ways to make a living: perhaps, go back to law school. And that just shows how much out of touch regulatory advocates often are, working here in the public world of Washington, D.C. Any count of the ``aggregate number'' of jobs also ignores the quality of those jobs.    Data shows that job displacement causes significant and lingering economic and physical hardship. Regulatory compliance jobs do not boost productivity; or another way of putting it is you never got a faster horse by putting more people on its back.    Moreover, as formal OIRA Administrator Cass Sunstein has argued, even if you are not convinced that regulations kill jobs, regulators need to be ``giving a lot more attention to that risk.'' Unfortunately, only 20 percent of agencies qualify employment effects.    Meanwhile, unemployment and underemployment are far higher than they are reported at any time, and particularly in January. We certainly see the U6 unemployment rate, which includes those workers who cannot find full-time work, stands at 9.9 percent.    Similarly, the labor force participation rate remains at near all-time lows. Many displaced workers have simply given up looking. Job creation depends on startups and new businesses. New businesses account for nearly all net new job creation, and almost 20 percent of gross job creation. Yet the U.S. has dropped from 12th among developed economies in terms of business startup activity.    Economists identify regulatory hurdles as one of the most significant influences on business dynamics. Today, ``almost 40 percent of U.S. jobs require a government license, as compared with 5 percent just one generation ago.'' It is worth examining root causes of this trend, and when Federal and State regulatory requirements serve as barriers to market entry.    In 2008, business deaths outnumbered business births for the first time in 35 years. Overregulation has wrecked the old economy. Now, it is suffocating startups. We have a unique panel of witnesses from old-line business, as well as the startup community, who can help us understand how deeply this problem is affecting our constituents. And I truly look forward to their testimony. And with that, I recognize the Ranking Member, Mr. Johnson of Georgia, for his opening statement.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you so much, Mr. Chairman. Today's hearing, the so-called triple threat of Federal regulation on jobs, wages, and innovation, is yet another attempt to justify the crony capitalist mission of regulatory reform. To suggest that we do not need any regulations and that regulations are terrible and a threat to jobs, wages, and innovation is just ridiculous.    While my Republican colleagues have repeatedly asserted that regulations inhibit job growth, all of the available evidence demonstrates that regulations play little role in unemployment. As the unemployment rate shrinks month by month, this argument has now shifted to wages and innovation. Notwithstanding the slippery nature of the regulatory reform debate, the facts remain clear: there is little to no connection between Federal regulation and jobs, wages, or innovation.    Leading experts at the University of Pennsylvania conducted an exhaustive study in 2014 that found that regulation plays a relatively small role in determining the aggregate number of jobs.'' Earlier studies by a host of experts in economics and administrative law reached similar conclusions. The Economic Policy Institute, San Francisco Federal Reserve, and the National Employment Law Project have also refuted the assertion that regulations undermine wage growth.    And finally, the economics chair at the Mercatus Institute, which is a bastion for conservative, free-market economic theory, has debunked the argument that regulations undermine innovation, finding that the exact opposite is true: ``Industries with greater regulatory stringency have higher startup rates,'' as well as similarly high job creation rates.    Meanwhile, the latest report from the Bureau of Labor Statistics shows that unemployment has fallen to 4.9 percent, the lowest since the George W. Bush recession. That is over 70 straight months of private sector job growth. I think that is about 14 million jobs created over the last 70 months. And that is with the Obama regulatory system, which, by the way, is very pro-worker, pro-environment, pro-public health and safety, and pro-innovation. Even conservative economic theorists have given up insisting that pro-regulatory policies undermine our economic output.    As Douglas Holtz-Eakin, president of the American Action Forum, and with great gnashing of his teeth noted himself, ``With low unemployment and rising wages, the Republicans' job gets a lot harder.'' Noting that a recent jobs report was ``promising.''    Finally, some will argue today that the sharing economy is proof of the positive effects of deregulation. I strongly oppose that sentiment. The sharing economy involves nuanced questions concerning the interplay between competition, regulation, and consumer protection. It has opened new markets to competition that did not exist just a few years ago, while raising novel and complex regulatory issues.    But let me be clear. The innovation economy has flourished under the Obama administration, just as the Internet blossomed under the Clinton administration. It does not exist in a regulatory or legal vacuum, and there is zero tradeoff between innovation and consumer protection.    In fact, as studies have repeatedly found, consumers only use services where there is a strong foundation of trust. As the Chairman of the Subcommittee knows, I have called for a hearing on this subject, the innovation economy, which this Subcommittee exercises ample jurisdiction over.    Indeed, we could have an entire series on it but, sadly, today's hearing, the 29th anti-regulatory hearing of its kind, will not explore the issues raised by the sharing economy in a thoughtful and evenhanded way. But I look forward to action on this issue, and with that, I will yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Chairman Issa, we have not conducted a hearing on the devastating impact that overwhelming student loan debt has on families and on our Nation's economy, or how to strengthen protections for employees and retirees of companies and municipalities that seek bankruptcy relief, or the life-threatening public health and safety ramifications of penny-wise but, in my view, dollar-foolish budget cuts made by unelected emergency financial managers, as illustrated by the catastrophic Flint water crisis and the hazardous condition of Detroit public school buildings in Michigan. And these are matters that affect millions of hardworking Americans and that have real consequences, not the illusionary so-called triple threat referred to in the title of today's hearings; and I use the term ``illusionary'' because there is no empirical evidence that regulations have a deleterious impact on job growth.    In fact, one could argue that a strong regulatory environment actually promotes job growth. For example, my colleagues here, on the other side, assert that the current Administration has issued an unprecedented number of regulations. Assuming that is true for the sake of argument, how can they ignore these facts? Three of them: unemployment has fallen by half since the 2008 Great Recession. The United States is in the midst of one of the longest-running streaks of private sector job creation in history; and three, 14 million new jobs have been created over the past 7 years.    And what about the impact of regulation on wages? The Economic Report of the President, which was just issued earlier this week, reports that wages grew faster last year than at any time since the Great Recession.    Admittedly, wages have not increased as much as they should; they have remained flat, but the cause is not because of overregulation. Rather, wage stagnation is largely a symptom of workplace inequality fostered by declining union membership and the resultant diminished bargaining power of lower- and middle-wage workers.    Sixty years ago, 1 out of every 4 workers belonged to a union. Now, today, less than 10 percent of Americans belong to a union. In fact, union membership in some states is less than 3 percent. Declining unionization, according to one study, accounts for between a fifth and a third of the increase of inequality since the 1970's.    And finally, with regard to the illusionary thought that regulations inhibit the creation of new businesses, this too is inaccurate. Startup companies, by bringing new products and services to the marketplace, are vital to productivity growth in the United States. And startups create jobs.    In 2013, startups created more than 2 million new jobs, compared with established firms that accounted for over 8 million new jobs. Unfortunately, there are real barriers to entry for new companies. Weak antitrust enforcement over the years has substantially reduced competition, thereby allowing larger firms to squeeze new entrants.    In addition, existing firms often lobby for rules protecting them from new entrants. Eliminating these real barriers to entry should be our Committee's priority, not spending, yet another hearing dealing with illusionary problems. And in closing, I want to thank the witnesses for their presence and participation. I look forward to the hearing of their testimony, and I thank the Chairman for his indulgence.</t>
   </si>
   <si>
@@ -76,30 +94,45 @@
     <t xml:space="preserve">    Mr. Issa. Additionally, I would ask all Members' opening statements be made a part of the record. Without objection, so ordered.    I would now ask, before we begin, for all the witnesses to please rise and take the oath. Please raise your right hands. Do you solemnly swear or affirm that the testimony you will give here today will be the truth, the whole truth, and nothing but the truth? Please be seated. Let the record indicate that all our many witnesses answered in the affirmative.    Today we are pleased to have a distinguished panel of witnesses. From left to right, we have Mr. Paul Murray. He is vice president of operations at the Murray Energy Corporation. Murray Energy Corporation is the largest independent coal company in America. He has worked at surface and underground coal mines his entire career. His duties have spanned positions from laborer to vice president. Mr. Murray earned his bachelor's degree in mining engineering at West Virginia University and his master's in business administration from the great State of Ohio, Ohio State University. Go Buckeyes.    Ms. Janet Kaboth is president of Whitacre-Greer Company. It is a fourth-generation--congratulations, you beat all the odds--family-run company that has been manufacturing clay products since 1916 in northeastern Ohio. It currently operates a plant in Alliance, Ohio, that employs 80 people. During her over 30 years with the company, Ms. Kaboth has held roles in information systems, marketing, accounting, and strategic planning.    Additionally, Ms. Kaboth serves on various industry and community boards. She earned her degree in education at Miami University in Oxford, Ohio, the alma mater of our speaker, Paul Ryan, and a master's in business administration from Baldwin Wallace College. And I will take just a moment to say, as a native Clevelander, you spent your whole live within a short drive of where I grew up.    Our next witness, Jared Meyer, is a fellow at the Manhattan Institute. His area of expertise includes microeconomic theory and economic effects of government regulations. His work has been featured in various national publication and media outlets. He is also the co-author of a book, ``Disinherited: How Washington Is Betraying America's Young.''    Mr. Meyer earned his bachelor's degree in finance with a minor in philosophy of law at St. John's University, where he graduated summa cum laude.    Next we have Dr. Patrick McLaughlin, senior research fellow at the Mercatus Center, previously mentioned as apparently not a bastion of liberalism. His research has focused on regulations and the regulatory process. Prior to joining Mercatus, Dr. McLaughlin served as a senior economist at the Federal Railroad Administration. He has published in the fields of law and economics, public choice, environmental economics, and international trade and has testified before both the House of Representatives and the Senate, as well as state legislatures.    Dr. McLaughlin earned his bachelor's degree in language and international trade, as well as his master's and Ph.D. in economics from Clemson University. Dr. Robert Weissman. Is it Weissman or Weissman?</t>
   </si>
   <si>
+    <t>Weissman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weissman. Weissman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Weissman.--Is the president of Public Citizen. His expertise ranges from corporate accountability and government transparency to trade and globalization to economic and regulatory policy. Prior to joining Public Citizen, Mr. Weissman served as director of the corporate accountability organization at Essential Action and as editor of the Multinational Monitor. He is widely published and has made many media appearances.    Mr. Weissman earned his bachelor's degree in social studies from Harvard University, and his J.D. again from Harvard, where he graduated magna cum laude. No slouch is he.    Dr. Bivens, you are last but not least. You are the research and policy director at the Economic Policy Institute, often called EPI. Your expertise includes microeconomics and monetary policy and economics of globalization, social insurance, and public investment. Additionally, you have provided expert testimony on issues before the U.S. Congress, as well as analyses for the United Nations and the Trade Union Advisory Committee. Dr. Bivens is widely published, including both books and articles, and has made various media appearances. Before joining EPI, Dr. Bivens was assistant professor of economics at Roosevelt University and provided consulting services to Oxfam America.    Dr. Bivens earned his bachelor's degree in economics from the University of Maryland at College Park, and his Ph.D. in economics from the New School of Social Research.    Again, I said it was a distinguished panel; it certainly is, and I thank you. And with that, I would only, as you might imagine, say with this large panel, would you please strictly stay to 5 minutes or less? The counter, little traffic light there, will guide you. Green, of course, means you may continue as quickly as possible. Yellow means you really have to go quick. And of course, red always means stop now. With that, we have our first witness, Mr. Murray.</t>
   </si>
   <si>
+    <t>Murray</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murray. Mr. Chairman, Members of the Committee, thank you. My name is Ryan Murray. I am vice president of operations at Murray Energy Corporation, our Nation's largest underground coal mining company. I am here today to discuss the devastating impacts from the Stream Protection Rule proposed by the Office of Surface Mining Reclamation and Enforcement: the Nation's mining operations, our proud American coal miners and their families, our numerous suppliers, and our communities.    While I will focus today on the Stream Protection Rule, it is just one of many regulations from this Administration that are destroying our industry's jobs, operations, suppliers, communities, and families.    Murray Energy and subsidiary companies have over 2,000 employees out of work right now from our peak employment of 8,000 employees in May of 2015. Several hundred of these men and women I hired myself. Due to the destructive and illegal actions of the Obama administration, our industry is under attack. Now with the proposed Stream Protection Rule, our industry will be eliminated for no environmental benefit. The SPR was originally conceived to keep surface mining operations from mining through streams.    However, during the 6 years it took OSM to draft the SPR, the rule was manipulated into complete rewrite of the Surface Mining Control and Reclamation Act of 1977. This is most likely due to the fact that OSM drafted the rule largely behind closed doors and without meaningful input from primacy state agencies, nearly all of whom dropped out of the formal consultation process with OSM because they deemed it to be a sham.    Now the SPR will ultimately end all underground longwall mining in the United States. Longwall mining is the safest, most modern, cost-effective, productive, and environmentally friendly method of mining in existence. As the diagrams attached to my testimony show, due to OSM's incredibly broad and unsupported interpretations in the SPR, extremely vast portions of Murray Energy's coal reserves and those of other coal companies will be sterilized if the rule is finalized as proposed. Incredibly, OSM has not even considered the need for a grandfathering provision, which means that primacy states will be required to overturn existing permits for which significant time, planning, and resources have already been expended.    Simply stated, the SPR eliminates the United States coal industry. For underground mining operations, the SPR is expected to strand 289 million tons of coal reserves annually, with a value of at least $18 billion per year. Additional impacts include a decrease in recovery of coal reserves by up to 64 percent, loss of annual contribution to the Nation's GDP of between $26 and $58 billion, and $3 to $6 billion in Federal and state tax revenue reductions. This will be devastating for America.    This is a human issue. Layoffs are expected to be dramatic, with between 40,000 and 77,000 coal miners expected to lose their jobs. These estimates completely undercut OSM's ridiculous suggestion that there will be minimal job impacts from the rule because coal mining jobs will be replaced with compliance and government inspector positions.    The broader effects of these layoffs will be enormous, as suppliers, retailers, and others feel the impact of reduced spending from the mining industry. One outside expert concluded that the SPR would cost between 112,000 to 280,000 jobs throughout the United States. Another analysis indicates an even greater ripple effect, where one lost mining job causes a loss of 11 additional jobs in the community, meaning up to 850,000 lost jobs as a result of the SPR.    For a coal miner, losing a job even temporarily is financially devastating. Most often, their major asset owned by many miners is their home. When they have to relocate just to attempt to find work, to whom are they supposed to sell this home? Their community is devastated. The Administration asserts that these coal miners will simply be retrained for other work within their communities. The reality is, there are virtually no other high-paying jobs in these communities. The average wages of a U.S. coal miner are typically double those of the average in their community.    Additionally, suppliers to the coal industry will be further devastated by the SPR. For example, one major equipment supplier in the mining industry, who is a world leader in innovation and development, had their first layoff in the company's 80-year history just last month. The SPR will push this innovation and manufacturing to other countries permanently.    Lastly, the impacts on coal mining communities themselves will be significant. Many of these communities rely on coal severance tax revenues to fund critical programs and projects, including school districts. OSM wholly ignored all of these real-world consequences, which disproportionately affect low-income households. The Obama administration's regulatory assault can best be described as a political power grab of America's power grid. It is my sincere hope that Congress will stop the proposed SPR rule.    Thank you for this opportunity to speak on behalf of our Nation's coal miners, and I will be pleased to answer any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you, Mr. Murray. Ms. Kaboth?</t>
   </si>
   <si>
+    <t>Whitacre-Kaboth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Whitacre-Kaboth. Good afternoon. Thank you for inviting me to testify. My name is Janet Whitacre-Kaboth. I am the president, CEO, and chairman of the board of Whitacre-Greer Company, which has manufactured clay products in northeastern Ohio since 1916. As we celebrate 100 years in business, we are very proud of our heritage. We operate a manufacturing facility in Alliance, Ohio, that employs approximately 80 people. We manufacture firebrick for the inside of masonry fireplaces and paving brick. In Washington, D.C., paving brick made by Whitacre-Greer form the sidewalks along Pennsylvania Avenue from the Capitol to the White House.    I am here on behalf of my company and the brick industry as a whole, as I serve on the board of the Brick Industry Association. We are a very small company within the brick industry. We only have one plant that has two kilns. Our industry and our company is committed to doing our share and to doing the right thing for our employees, our vendors, customers, and communities.    However, as our industry continues to struggle to come out of the Great Recession, we, like many others, have limited resources. It is extremely important that these limited resources be used judiciously and on the most important issues. It is critical that every dollar we spend gives back some benefit. There are many regulations that affect us, but I am going to talk about two regulations today: the air toxics standard or brick MACT developed by the USEPA; and the proposed revisions to the silica permissible exposure limit, expected to be issued very soon by OSHA. These two rules and their crippling impact on the brick industry illustrate how workers and local communities can be devastated by new regulations.    The current brick MACT is the second time in a decade that the EPA imposed major requirements on our industry. The agency finalized a rule in 2003. Our industry complied with the rule in 2006. But in 2007, the courts vacated the rule. Our industry was in compliance with that rule when it was thrown out, and had spent over $100 million to install 80 of the 100 controls that now exist in our industry. The EPA used the performance of the new controls to establish even lower limits for its current rule, which it finalized in late 2015.    For many brick companies, this will require them to tear out the existing controls that they spent millions on, and purchase more costly new controls in order to produce a slight benefit to the environment. While the brick MACT does allow a health-based standard for some emission types, full compliance will probably require the installation of control devices for particulate matter and mercury for most kilns. For our plant in Alliance, Ohio, the estimated cost is $4 million for control devices and operation. This represents 23 percent of our current net worth, which would eliminate at most 4 pounds of mercury per year.    In September 2014, OSHA proposed revisions to the current PEL for silica. This reduction was proposed as a one-size-fits-all type regulation that is typical. OSHA estimates costs for this rule to average $38,000 per year annualized over a 10-year period for a brick plant. However, compliance would require an initial capital expenditure of about $906,000.    OSHA has been provided a significant set of studies conducted over the last 75 or more years, demonstrating that the response to the silica used in the brick industry is very different from other industries, and they acknowledge the much lower incidence rate of silicosis from our industry. They also separately acknowledge the high costs of their rule. However, they do not put these two pieces of data together and consider our industry separately when attempting to show that the rule is justified.    In both these cases, the statutes that direct EPA and OSHA to develop these rules have flexibilities contained with them to allow these agencies to meet their obligation without destroying our industry. We just do not know how to make them use these flexibilities and to take the time to do it right, rather than just doing it quickly, and to not take a one-size-fits-all approach that will destroy an industry. Compliance with both of these rules at the same time will devastate our already threatened industry, where 75 percent of the companies are small businesses. This is well documented in a report issued earlier this month by the U.S. Chamber of Commerce entitled ``Regulatory Indifference Hurts Vulnerable Communities.''    Practically speaking, from my end, compliance with both these regulations would require me to obtain a loan for $5 million that would add equipment that would not reduce our cost, improve our product, increase our sales, or provide any health benefits for our employees or neighbors. It would be impossible for us to obtain a loan of this size that would not provide us with any benefits. I spent the last 2 years trying to obtain financing for kiln renovation, which would reduce our natural gas cost by approximately $500,000 per year, but it took me 2 years to find a financial institution willing to lend us the money. The cost of compliance with both these regulations at the same time would put us out of business, and we are not the only ones.    If the inability to comply would cause us to go out of business, more than $8 million would be lost from our local community; we would pay over $4 million in wages to 80 families. Many of our employees would have difficulty finding other employment due to their low level of education.    However, if these regulations would save lives of our workers or neighbors, they would be worth it, but for both of these rules, the agencies themselves have data that show that the benefits of these regulations is minimal or nonexistent for our industry.    So, I guess I would like to think that after 100 years of providing good employment, paying taxes, and trying to be a responsible corporate entity, that someone in the government could look at the cumulative effect of this regulation and help us. Thank you.    [The prepared statement of Ms. Whitacre-Kaboth follows:*]---------------------------------------------------------------------------    *Note: Supplemental material submitted with this prepared statement is not reprinted in this record but is on file with the Committee, and can also be accessed at:  http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=104519.                                                                __________</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Mr. Meyer.</t>
   </si>
   <si>
+    <t>Meyer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meyer. Chairman Issa, Ranking Member Johnson, and other Members of the House Judiciary Committee, thanks for giving me the opportunity to give testimony on how the current model of Federal regulation stands in the way of millennial entrepreneurs. Millennials have been called the startup generation, but few young Americans have followed through on their entrepreneurial dreams. About two-thirds of millennials want to work for themselves at some point. Yet less than 4 percent of private businesses are at least partially owned by someone under the age of 30, the lowest annual proportion on record.    Government policy, particularly in regards to regulation, ignores the reality of a 21st century economy and continues to hold back millennials' economic opportunity. Congress has granted executive and independent agencies freedom to regulate with minimal oversight, and these agencies consistently understate the costs that their pronouncements place on young Americans. It is impossible to know the full costs of America's 175,000-page Code of Federal Regulations because executive agencies refuse to take count.    For example, during 2014, only 16 of the over 3,500 rules published in the Federal Register had a cost analysis. This lack of oversight occurred even though there were 290 significant rules and 69 economically significant rules that year. These types of rules generally have over $100 million in annual negative effects on the economy, and are supposed to undergo rigorous review.    Agencies are also increasingly acting as legislators. In 2015, there were over 50 regulations for each law that Congress passed. This imbalance shows the need for Congress to take back its authority from agencies. Public review and transparency requirements do not apply to agency guidance documents, memorandum, or notices.    These growing types of shadow, or also called dark matter, regulation lack transparency, even though they can impose substantial costs on young Americans. This negative effect can be seen in the Department of Labor's efforts to make it more difficult for independent contractors to work.    The Labor Department recently issued an administrator's interpretation, which did not have to go before the public for comments; that downplays a lack of control over workers' hours as a determinant in employment status. The flexibility that independent contractor status offers workers is vital for many industries, including the emerging sharing economy. The sharing economy's embrace of technology, convenience, and flexibility embodies many young Americans' economic ideal. While some workers use these platforms full-time, the vast majority use them for part-time work or supplemental income. For about the 70 percent of young adults who experience an average change of over 30 percent in their monthly incomes, the opportunity to smooth out earnings to meet rent, pay down student loans, or fund a new business venture is a benefit of the sharing economy that must be protected.    Young Americans realize how out of touch regulators are with today's economy. If you look at it, only 18 percent of millennials believe that regulators primarily have the public's interest in mind. The worker classification needs to be sorted out by Congress, not courts or unaccountable executive agencies. The alternative is the crippling of economic opportunity by executive agencies who are set on incorrectly classifying the vast majority of new economy workers as employees.    The House Judiciary Committee deserves credit for establishing a task force on executive overreach, as there are many ways that Congress can regain control over Federal agencies and restore lost economic opportunity for millennials. Part of the reason for the ineffectiveness of previous reforms is the inherent incentives that agencies have to expand their reach. Internal regulatory reviews have not led to meaningful reform, but how could they have? The hands-off approach that Congress has given agencies provides little incentive for self-control.    The three main priorities for meaningful regulatory reform should be slowing the continued growth in the cost and number of regulations, repealing outdated and burdensome regulations, and giving the public a greater say in agencies' actions. Many promising regulatory reforms have already been introduced in the House. The Regulatory Predictability for Business Growth Act, the Regulatory Accountability Act, REINS Act, Red Tape Act, and SCRUB Act, all address at least one of these important priorities.    Young Americans need a stronger voice in the regulatory process, and their elected representatives can provide that check. Millennials value transparency, democracy, and accountability. It is long past time for Congress to apply these principles to U.S. regulation.    Thank you for the opportunity to provide testimony, and I look forward to continuing the discussion.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Issa. Thank you. Dr. McLaughlin.  TESTIMONY OF PATRICK A. McLAUGHLIN, Ph.D., SENIOR RESEARCH </t>
   </si>
   <si>
+    <t>McLaughlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Chairman Issa, Ranking Member Johnson, Members of the Committee, thank you for inviting me. My main point today is simple: regulations contribute to poverty. That may sound counterintuitive, perhaps because some people assume that the costs of regulations are limited to compliance costs, and that those costs are paid primarily by businesses. This belief is incorrect. There are at least two specific ways that the costs of regulation can actually be regressive, meaning that the costs are disproportionately borne by low-income households.    First, regulations have regressive effects by increasing the prices of basic necessities, such as electricity and housing, which typically are the big-ticket items on the budget of low-income households.    Second, some types of regulations are associated with higher levels of income inequality, because they make it too costly and too difficult for entrepreneurs from the lowest segments of the income distribution to start their own businesses.    On my first point, in contrast to the belief that businesses pay the cost of regulation, regulatory growth is in fact associated with increases in the prices of all goods for all consumers.    A recent study, which I have submitted for the record, found that a 10 percent increase in the quantity of Federal regulations is associated with a 0.7-perecent increase in prices. While 0.7 percent may sound small, consider that this same study found that regulations grew by 33.6 percent from 2000 to 2012. A simple linear calculation of the effect over time implies that 2.31 percent of price inflation was associated with Federal regulatory growth.    However, if you consider annual compounding, which would be appropriate given that this is a rate of growth, the total price inflation associated with regulation over that period is close to 9 percent; and I promise I will not mention annual compounding again. That percentage is the average across all households, but the price inflation associated with regulation is worse for low-income households because the big-ticket items in their budgets also happen to be heavily regulated. For example, electricity costs make up more than twice as much of the budgets of low-income households compared to high-income households. Because it is heavily regulated, the regulatory price inflation associated with the good is also relatively high.    My second point is that regulations can contribute to income inequality. In the study that I submitted for the record, a co-author and I examined a sample of 175 countries to learn more about the relationship between regulation and income inequality. We found that those countries with more stringent entry regulations tend to experience significantly higher levels of income inequality. The explanation for this is straightforward: when entrepreneurs cannot legally open a business because of the cost or difficulty of dealing with regulations, they may abandon the idea altogether.    Consider the longstanding reputation of America as the land of opportunity, where you can lift yourself up by your bootstraps with enough hard work. Indeed, entrepreneurship has historically been one of the best paths from rags to riches. If regulations are inhibiting this process, people with low incomes have fewer opportunities to rise up the income distribution.    In sum, there is mounting evidence, mounting empirical evidence, that regulations are contributing to poverty. First, they have regressive effects caused by increasing prices, particularly for those items that low-income households purchase most.    Second, regulations can contribute to income inequality by increasing the cost of starting a business. This makes it more difficult for entrepreneurs to start their climb up the income ladder.    Although these facts are surely disheartening, there is good news. Because regulations disproportionately harm low-income households, regulatory reform offers an opportunity to enact a policy that would effectively act like a tax refund, because it would reduce the price inflation associated with regulations.    However, unlike a one-time tax refund, the benefits from regulatory reform would repeat year after year. They would not increase the deficit, and they would be progressive in their nature. That is, they would accrue foremost to low-income households. The regulatory process in the United States leads to regulatory accumulation, the buildup of rules over time.    Federal regulatory code currently contains over 1 million individual regulatory restrictions. If you actually tried to read regulations as a full-time job, it would take you over 3 years to read the entire code: over 3 years.    The accumulation of regulation is both undesirable because of the unintended consequences associated with it, and avoidable. If this accumulation of regulation is harming not only the economy but especially low-income households, it is certainly time to consider ways that we can eliminate regulations that are obsolete, duplicative, ineffective, or otherwise undesirable. We can and should change the regulatory process to reduce the ways that Federal regulations are hurting, not helping, low-income households. Thank you for your attention.    [The prepared statement of Mr. McLaughlin follows:**]---------------------------------------------------------------------------    **Note: Supplemental material submitted with this witness statement is not reprinted in this record but is on file with the Committee. The complete statement can be accessed at:  http://docs.house.gov/Committee/Calendar/ByEvent.aspx?EventID=104519.                                 __________</t>
   </si>
   <si>
@@ -115,6 +148,9 @@
     <t xml:space="preserve">    Mr. Johnson. Well with arbitration also.</t>
   </si>
   <si>
+    <t>Bivens</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bivens. Thank you.</t>
   </si>
   <si>
@@ -292,6 +328,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino [presiding]. Without objection, so ordered.</t>
   </si>
   <si>
@@ -304,6 +346,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I will say this, though--and we are going to get to Mr. Murray and Ms. Kaboth. I thank you all for being a part of this panel. You actually work in industries and not discuss other industries, and I always think that the greatest thing about these panels--no offense to my legal experts and my think tanks--you are actually hiring people, getting people jobs, doing those kind of things that actually are being affected up here in Washington.    And being a part of this panel makes great sense. The thing that just--and I have sat up here for just a few moments. And again, Mr. Bivens is probably the most--and I am not saying dishonest or--the truthful thing you said just a moment ago was the shuffling of jobs--that one may have a problem in where it--you know where that greatest impact is shown is in Washington, D.C. We have been wonderful at creating jobs in Washington, D.C. We have been wonderful at creating regulatory impact jobs in Washington, D.C.    We have not been very good--I mean, when you have--I am going to just name some things here because, Mr. Chairman, this--I could not think of a better--I have got banks that are being regulated by more regulators than the bank has employees. And the regulators get mad because they do not have someplace to sit down.    Mr. Weissman, you just said the silica rule. I was in environmental monitoring before. You know what one of the problems with the silica rule is? They cannot get honest measurements. They cannot determine actual levels. You go to the granite industry in my district, and you actually go into one of these facilities where they are already using protective devices and try and measure ambient silicate. I mean, it sounds great. You are going to save so many other people. It sounds wonderful, but yet, the practicality is almost impossible to read.    You get into phosphate readings in Lake Lanier in northeast Georgia in which the phosphate levels taken from the sample are too small to be accurately counted, but yet the cities and counties are required to meet a level in which the Federal Government cannot even verify.    We talk about issues when it comes to the position of saying regulations help. There is nobody in this room, and this is where the straw man arguments often come out in this, that Republicans do not like regulations; we want unsafe air; we want to drink dirty water; we want to do this. That is ridiculous. What is unfair to the American people is to come up with rules and regulations and say, ``Well, they do not affect people.'' I have got an industry in my district, RING, (?) which is a nonprofit. They are wanting to expand and want to do, but they got caught with the 50 full-time equivalent issue. Now, we can say that, you know, that regulations do not affect jobs, but they cannot afford to grow because of these regulations that have been put on them.    Every night that I am thankfully home, I get to sleep with and have a great relationship with a wife who is a teacher. I am tired of hearing my wife for 26 years--because one of the things we talk about is jobs in this Committee and regulatory in this Committee is, we need an educated workforce, but, yet, we have an ever-expanding Department of Education up here, many who of which have never been in a classroom. Banking regulators who have never made a loan, telling the rest of the world how to make a loan: that is just ludicrous. Educators sitting in a cubicle saying, ``Here is how you teach kids,'' and have never taught in a classroom.    It is not the fact if regulation matters. It is the fact of Washington on steroids thinking, ``We know better than everywhere else.'' If you want to help industry, if you want to help manufacturers be--I have yet to walk into a factory in which the general manager says, ``Doug, watch today. We are going to maim three people. Doug, I want you to watch this. We are hiding the ball, and we want to see people's fingers cut off today. It is fabulous. Watch it.''    When you have OSHA, which lives off its own fine system, hiring regulators, increasing the fine schedule, and going in, and this is what they do. They fine first instead of showing businesses, ``Here is a better way. Here is how you can fix the problem''--never seen that in your industries, I bet. But instead, it is because they have to keep their job. They are better than used car salesmen. OSHA inspectors have to write up and have to get fines, and then they settle the fines. If that is the regulatory environment that this country wants, then we are headed straight for disaster.    So, to say silica is going to save all these lives--Mr. Weissman, show me how you are going to measure that in the ambient air. Show me how that is actually going to save people. I believe several things. I believe you eat right, you exercise daily, you follow your doctor's instructions, you die anyway. There are some things in life that are just attributable to living, and to say we are going to save so many people by something that you honestly cannot measure is a disingenuous remark to a country that is struggling for jobs and education.    Mr. Bivens, you said it right. Regulations help some areas, and they hurt others. My problem is, they hurt these people on this end who are actually trying to give people jobs, and they help people up here who have never done the jobs. I do not have any questions, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -313,6 +361,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chair. And I want to thank the witnesses for your presence here today. And if I could just start with Mr. Meyer, and perhaps we can take a macroeconomic approach to the economic situation that we find ourselves in today. Is it your view that regulations that have been put forth under this Administration have stifled economic growth in America?</t>
   </si>
   <si>
@@ -464,6 +518,12 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. I think everyone here knows and hopefully agrees that unnecessary regulations hurt job growth and suppress wages, but we often talk about that conceptually. We talk about it in broad strokes. We talk about tens of thousands of jobs that will be crushed by a new regulation created by some unelected bureaucrat or the millions of dollars in compliance costs. But those tens of thousands of jobs are not just numbers; they are individuals, and they are families. They are hardworking Texans like a lot of the folks that I represent. And those millions of dollars in compliance costs do not just appear out of thin air. Those are funds that could otherwise be used to pay salaries or to create more jobs or to invest in future growth.    Just 2 months ago, Gallup released a poll that found that 69 percent of Americans name big government as the biggest threat to our country right now and in the future, not ISIS, not out-of-control spending, not a broken health care system, not a nuclear Iran. Now, those threats are certainly all real. But right now, 7 out of 10 Americans are most worried about a rapidly growing government, a government that does stifle opportunity instead of fostering it. And it is a real problem, as we are hearing today. It is forcing companies out of business that have been around for almost a century. Real people are losing their jobs. Businesses are not growing.    So, Dr. McLaughlin, I want to start with you. Regulators do not seem to understand that the world is interconnected. They appear to view each regulation in isolation and do not seem to understand that they are actually crushing the jobs of their fellow Americans. I want to give you an opportunity to elaborate on this very narrow-minded, naive, in my opinion, view of the world.</t>
@@ -881,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -889,7 +949,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,4085 +971,4782 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
       <c r="H71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
       <c r="H75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
       <c r="H77" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>91</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
       <c r="H88" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
       <c r="H89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s">
+        <v>104</v>
+      </c>
       <c r="H90" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>95</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>110</v>
+      </c>
       <c r="H91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s">
+        <v>104</v>
+      </c>
       <c r="H92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G93" t="s">
+        <v>115</v>
+      </c>
       <c r="H93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G95" t="s">
+        <v>115</v>
+      </c>
       <c r="H95" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G97" t="s">
+        <v>115</v>
+      </c>
       <c r="H97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>98</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G99" t="s">
+        <v>115</v>
+      </c>
       <c r="H99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>98</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G101" t="s">
+        <v>115</v>
+      </c>
       <c r="H101" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>98</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G103" t="s">
+        <v>115</v>
+      </c>
       <c r="H103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>98</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G105" t="s">
+        <v>115</v>
+      </c>
       <c r="H105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>98</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G107" t="s">
+        <v>115</v>
+      </c>
       <c r="H107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>98</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G109" t="s">
+        <v>115</v>
+      </c>
       <c r="H109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>98</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G111" t="s">
+        <v>115</v>
+      </c>
       <c r="H111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>98</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G113" t="s">
+        <v>115</v>
+      </c>
       <c r="H113" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>98</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G115" t="s">
+        <v>115</v>
+      </c>
       <c r="H115" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>98</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G117" t="s">
+        <v>115</v>
+      </c>
       <c r="H117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>98</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G119" t="s">
+        <v>115</v>
+      </c>
       <c r="H119" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G121" t="s">
+        <v>115</v>
+      </c>
       <c r="H121" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>98</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G123" t="s">
+        <v>115</v>
+      </c>
       <c r="H123" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>98</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G125" t="s">
+        <v>115</v>
+      </c>
       <c r="H125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>98</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G127" t="s">
+        <v>115</v>
+      </c>
       <c r="H127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>98</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G129" t="s">
+        <v>115</v>
+      </c>
       <c r="H129" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>35</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>98</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G131" t="s">
+        <v>115</v>
+      </c>
       <c r="H131" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I131" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>98</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G133" t="s">
+        <v>115</v>
+      </c>
       <c r="H133" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I133" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>35</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>98</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G135" t="s">
+        <v>115</v>
+      </c>
       <c r="H135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>98</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G137" t="s">
+        <v>115</v>
+      </c>
       <c r="H137" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I137" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>98</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G139" t="s">
+        <v>115</v>
+      </c>
       <c r="H139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I139" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>35</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>98</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G141" t="s">
+        <v>115</v>
+      </c>
       <c r="H141" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>35</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>98</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G143" t="s">
+        <v>115</v>
+      </c>
       <c r="H143" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>98</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G145" t="s">
+        <v>115</v>
+      </c>
       <c r="H145" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I145" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>98</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>114</v>
+      </c>
+      <c r="G147" t="s">
+        <v>115</v>
+      </c>
       <c r="H147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>116</v>
+      </c>
+      <c r="I147" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>91</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G148" t="s">
+        <v>104</v>
+      </c>
       <c r="H148" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I148" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G149" t="s">
+        <v>168</v>
+      </c>
       <c r="H149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I149" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>38</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G151" t="s">
+        <v>168</v>
+      </c>
       <c r="H151" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>38</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>149</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G153" t="s">
+        <v>168</v>
+      </c>
       <c r="H153" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I153" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>32</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>149</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G155" t="s">
+        <v>168</v>
+      </c>
       <c r="H155" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I155" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>91</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G156" t="s">
+        <v>104</v>
+      </c>
       <c r="H156" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I156" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>91</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G158" t="s">
+        <v>104</v>
+      </c>
       <c r="H158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I158" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>32</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>91</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G160" t="s">
+        <v>104</v>
+      </c>
       <c r="H160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I160" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>91</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G161" t="s">
+        <v>104</v>
+      </c>
       <c r="H161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I161" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>26</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>91</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G163" t="s">
+        <v>104</v>
+      </c>
       <c r="H163" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>26</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>91</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G165" t="s">
+        <v>104</v>
+      </c>
       <c r="H165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I165" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>26</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>91</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G167" t="s">
+        <v>104</v>
+      </c>
       <c r="H167" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I167" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>26</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>91</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G169" t="s">
+        <v>104</v>
+      </c>
       <c r="H169" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I169" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>91</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G171" t="s">
+        <v>104</v>
+      </c>
       <c r="H171" t="s">
-        <v>172</v>
+        <v>105</v>
+      </c>
+      <c r="I171" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98826.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Issa</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -326,6 +335,9 @@
   </si>
   <si>
     <t>412468</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
   <si>
     <t>Marino</t>
@@ -941,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,7 +961,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,4779 +986,5136 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>32</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>35</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>32</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>32</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>32</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>26</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G91" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G95" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>38</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G101" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>38</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G103" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I103" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>38</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G105" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I105" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G107" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>38</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G109" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G111" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I111" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>35</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G113" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G115" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I115" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G117" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I117" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>35</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>38</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G119" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>38</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G121" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>35</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G123" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>38</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G125" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I125" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>35</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G127" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G129" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>35</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G131" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G133" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G135" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>38</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G137" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>35</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G139" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I139" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>35</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G141" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>38</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G143" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G145" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J145" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>38</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G147" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J147" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G148" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H148" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J148" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G149" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>38</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G151" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G153" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>32</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>35</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G155" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G156" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H156" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I156" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>29</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>32</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G158" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H158" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I158" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>35</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G160" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H160" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I160" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G161" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H161" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I161" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>26</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G163" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H163" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I163" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>26</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>29</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G165" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H165" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I165" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J165" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>26</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G167" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H167" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>26</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G169" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H169" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I169" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J169" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>21</v>
-      </c>
-      <c r="G170" t="s">
-        <v>44</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>47</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G171" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H171" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I171" t="s">
-        <v>192</v>
+        <v>109</v>
+      </c>
+      <c r="J171" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
